--- a/code/spearman-outfiles/correlation_2021.04.25-06.24.37/pvalue_2021.04.25-06.24.37.xlsx
+++ b/code/spearman-outfiles/correlation_2021.04.25-06.24.37/pvalue_2021.04.25-06.24.37.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\spearman-outfiles\correlation_2021.04.25-06.24.37\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3666CB5-C8A1-454B-AE6D-90E3C21AF39A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EFBA5B-762E-4AE8-8EC1-94E7F0BB4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pvalue_2021.04.25-06.24.37" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>ALAND_ATOTAL_ratio</t>
   </si>
   <si>
-    <t>deathRate</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>popuDensity_ATOTAL_km2</t>
+  </si>
+  <si>
+    <t>mortalityRate</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ40" sqref="AQ40"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7449,19 +7449,19 @@
         <v>40</v>
       </c>
       <c r="AP46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ46" s="2" t="s">
+      <c r="AR46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR46" s="2" t="s">
+      <c r="AS46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS46" s="2" t="s">
+      <c r="AT46" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AT46" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
